--- a/Planning/Project plan (Gannt chart).xlsx
+++ b/Planning/Project plan (Gannt chart).xlsx
@@ -1,37 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49291\Desktop\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellison/Desktop/ADS-game/Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3AC65F-70FF-47C7-B5B0-BD5A63E2F2D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6FB598-E5B5-1F43-91BA-AFD740D4451E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AD47872-EC1B-47C7-9742-BE9638469133}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{9AD47872-EC1B-47C7-9742-BE9638469133}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start Date </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="124">
   <si>
     <t>Question gathering</t>
   </si>
@@ -57,9 +57,6 @@
     <t>External testing</t>
   </si>
   <si>
-    <t>Paperwork</t>
-  </si>
-  <si>
     <t>Self testing</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t xml:space="preserve">19th July </t>
   </si>
   <si>
-    <t>Days to complete</t>
-  </si>
-  <si>
     <t xml:space="preserve">22th July </t>
   </si>
   <si>
@@ -202,13 +196,220 @@
   </si>
   <si>
     <t>21st August</t>
+  </si>
+  <si>
+    <t>17th June</t>
+  </si>
+  <si>
+    <t>18th June</t>
+  </si>
+  <si>
+    <t>19th June</t>
+  </si>
+  <si>
+    <t>20th June</t>
+  </si>
+  <si>
+    <t>21st June</t>
+  </si>
+  <si>
+    <t>22nd June</t>
+  </si>
+  <si>
+    <t>23rd June</t>
+  </si>
+  <si>
+    <t>24th June</t>
+  </si>
+  <si>
+    <t>25th June</t>
+  </si>
+  <si>
+    <t>26th June</t>
+  </si>
+  <si>
+    <t>27th June</t>
+  </si>
+  <si>
+    <t>28th June</t>
+  </si>
+  <si>
+    <t>29th June</t>
+  </si>
+  <si>
+    <t>30th June</t>
+  </si>
+  <si>
+    <t>1st July</t>
+  </si>
+  <si>
+    <t>2nd July</t>
+  </si>
+  <si>
+    <t>3rd July</t>
+  </si>
+  <si>
+    <t>4th July</t>
+  </si>
+  <si>
+    <t>5th July</t>
+  </si>
+  <si>
+    <t>6th July</t>
+  </si>
+  <si>
+    <t>7th July</t>
+  </si>
+  <si>
+    <t>8th July</t>
+  </si>
+  <si>
+    <t>9th July</t>
+  </si>
+  <si>
+    <t>10th July</t>
+  </si>
+  <si>
+    <t>11th July</t>
+  </si>
+  <si>
+    <t>12th July</t>
+  </si>
+  <si>
+    <t>13th July</t>
+  </si>
+  <si>
+    <t>14th July</t>
+  </si>
+  <si>
+    <t>15th July</t>
+  </si>
+  <si>
+    <t>16th July</t>
+  </si>
+  <si>
+    <t>17th July</t>
+  </si>
+  <si>
+    <t>18th July</t>
+  </si>
+  <si>
+    <t>22nd August</t>
+  </si>
+  <si>
+    <t>23rd August</t>
+  </si>
+  <si>
+    <t>24th August</t>
+  </si>
+  <si>
+    <t>25th August</t>
+  </si>
+  <si>
+    <t>26th August</t>
+  </si>
+  <si>
+    <t>27th August</t>
+  </si>
+  <si>
+    <t>28th August</t>
+  </si>
+  <si>
+    <t>29th August</t>
+  </si>
+  <si>
+    <t>30th August</t>
+  </si>
+  <si>
+    <t>31st August</t>
+  </si>
+  <si>
+    <t>1st Sep</t>
+  </si>
+  <si>
+    <t>2nd Sep</t>
+  </si>
+  <si>
+    <t>3rd Sep</t>
+  </si>
+  <si>
+    <t>4th Sep</t>
+  </si>
+  <si>
+    <t>5th Sep</t>
+  </si>
+  <si>
+    <t>6th Sep</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  Task</t>
+  </si>
+  <si>
+    <t>Stage1: Planning</t>
+  </si>
+  <si>
+    <t>Stage2: Developing</t>
+  </si>
+  <si>
+    <t>Stage3: Evaluating</t>
+  </si>
+  <si>
+    <t>ADS Game Project Schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Start Date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  End Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Days</t>
+  </si>
+  <si>
+    <t>Stage4: Paperworking</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,8 +425,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,11 +465,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -263,13 +517,68 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,283 +894,845 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F3ED06-EAD6-42B7-8C45-BF404977AE17}">
-  <dimension ref="A1:AK12"/>
+  <dimension ref="A1:CH36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="37" width="3.5703125" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="147" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="66" customHeight="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:86" ht="27" customHeight="1">
+      <c r="A1" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="6"/>
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="6"/>
+      <c r="BA1" s="11"/>
+      <c r="BB1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="6"/>
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="6"/>
+      <c r="BG1" s="6"/>
+      <c r="BH1" s="11"/>
+      <c r="BI1" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ1" s="6"/>
+      <c r="BK1" s="6"/>
+      <c r="BL1" s="6"/>
+      <c r="BM1" s="6"/>
+      <c r="BN1" s="6"/>
+      <c r="BO1" s="11"/>
+      <c r="BP1" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="BQ1" s="6"/>
+      <c r="BR1" s="6"/>
+      <c r="BS1" s="6"/>
+      <c r="BT1" s="6"/>
+      <c r="BU1" s="6"/>
+      <c r="BV1" s="11"/>
+      <c r="BW1" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="BX1" s="6"/>
+      <c r="BY1" s="6"/>
+      <c r="BZ1" s="6"/>
+      <c r="CA1" s="6"/>
+      <c r="CB1" s="6"/>
+      <c r="CC1" s="11"/>
+      <c r="CD1" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="CE1" s="7"/>
+      <c r="CF1" s="7"/>
+      <c r="CG1" s="7"/>
+      <c r="CH1" s="7"/>
+    </row>
+    <row r="2" spans="1:86" ht="66" customHeight="1">
+      <c r="A2" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="BE2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="BF2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="BI2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="BK2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="BL2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="BM2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="BN2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BO2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="BP2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="BQ2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="BR2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BS2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BT2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="BU2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="BV2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="BW2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY2" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="CA2" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="CB2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:86" s="16" customFormat="1" ht="19" customHeight="1">
+      <c r="A3" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="14"/>
+      <c r="BC3" s="14"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14"/>
+      <c r="BF3" s="14"/>
+      <c r="BG3" s="14"/>
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="14"/>
+      <c r="BJ3" s="14"/>
+      <c r="BK3" s="14"/>
+      <c r="BL3" s="14"/>
+      <c r="BM3" s="14"/>
+      <c r="BN3" s="14"/>
+      <c r="BO3" s="14"/>
+      <c r="BP3" s="14"/>
+      <c r="BQ3" s="14"/>
+      <c r="BR3" s="14"/>
+      <c r="BS3" s="14"/>
+      <c r="BT3" s="14"/>
+      <c r="BU3" s="14"/>
+      <c r="BV3" s="14"/>
+      <c r="BW3" s="14"/>
+      <c r="BX3" s="14"/>
+      <c r="BY3" s="14"/>
+      <c r="BZ3" s="14"/>
+      <c r="CA3" s="14"/>
+      <c r="CB3" s="14"/>
+      <c r="CC3" s="14"/>
+      <c r="CD3" s="15"/>
+      <c r="CE3" s="15"/>
+      <c r="CF3" s="15"/>
+      <c r="CG3" s="15"/>
+      <c r="CH3" s="15"/>
+    </row>
+    <row r="4" spans="1:86">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+    </row>
+    <row r="5" spans="1:86">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+    </row>
+    <row r="6" spans="1:86">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+    </row>
+    <row r="7" spans="1:86">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+    </row>
+    <row r="8" spans="1:86">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:37">
-      <c r="A3" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="23">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+    </row>
+    <row r="9" spans="1:86">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:37">
-      <c r="A4" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="23">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+    </row>
+    <row r="10" spans="1:86">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:37">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+    </row>
+    <row r="11" spans="1:86">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:37">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="23">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+    </row>
+    <row r="12" spans="1:86">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:37">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:37">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8">
+      <c r="C12" s="22"/>
+      <c r="D12" s="23">
         <v>4</v>
       </c>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="1:37">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-    </row>
-    <row r="10" spans="1:37">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-    </row>
-    <row r="11" spans="1:37">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-    </row>
-    <row r="12" spans="1:37">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12">
-        <v>32</v>
-      </c>
-      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -883,10 +1754,10 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
@@ -895,8 +1766,590 @@
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
       <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+    </row>
+    <row r="13" spans="1:86">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+    </row>
+    <row r="14" spans="1:86">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23">
+        <v>32</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+    </row>
+    <row r="15" spans="1:86" s="16" customFormat="1" ht="19">
+      <c r="A15" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:86">
+      <c r="A16" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23">
+        <v>3</v>
+      </c>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="3"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3"/>
+      <c r="AU16" s="3"/>
+      <c r="AV16" s="3"/>
+      <c r="AW16" s="3"/>
+      <c r="AX16" s="3"/>
+      <c r="AY16" s="3"/>
+      <c r="AZ16" s="3"/>
+      <c r="BA16" s="3"/>
+      <c r="BB16" s="3"/>
+      <c r="BC16" s="3"/>
+      <c r="BD16" s="3"/>
+      <c r="BE16" s="3"/>
+      <c r="BF16" s="3"/>
+      <c r="BG16" s="3"/>
+      <c r="BH16" s="3"/>
+      <c r="BI16" s="3"/>
+      <c r="BJ16" s="3"/>
+      <c r="BK16" s="3"/>
+      <c r="BL16" s="3"/>
+      <c r="BM16" s="3"/>
+    </row>
+    <row r="17" spans="1:65">
+      <c r="A17" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="3"/>
+      <c r="AZ17" s="3"/>
+      <c r="BA17" s="3"/>
+      <c r="BB17" s="3"/>
+      <c r="BC17" s="3"/>
+      <c r="BD17" s="3"/>
+      <c r="BE17" s="3"/>
+      <c r="BF17" s="3"/>
+      <c r="BG17" s="3"/>
+      <c r="BH17" s="3"/>
+      <c r="BI17" s="3"/>
+      <c r="BJ17" s="3"/>
+      <c r="BK17" s="3"/>
+      <c r="BL17" s="3"/>
+      <c r="BM17" s="3"/>
+    </row>
+    <row r="18" spans="1:65">
+      <c r="A18" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23">
+        <v>3</v>
+      </c>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3"/>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="3"/>
+      <c r="BG18" s="3"/>
+      <c r="BH18" s="3"/>
+      <c r="BI18" s="3"/>
+      <c r="BJ18" s="3"/>
+      <c r="BK18" s="3"/>
+      <c r="BL18" s="3"/>
+      <c r="BM18" s="3"/>
+    </row>
+    <row r="19" spans="1:65">
+      <c r="A19" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3"/>
+      <c r="AZ19" s="3"/>
+      <c r="BA19" s="3"/>
+      <c r="BB19" s="3"/>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="3"/>
+      <c r="BE19" s="3"/>
+      <c r="BF19" s="3"/>
+      <c r="BG19" s="3"/>
+      <c r="BH19" s="3"/>
+      <c r="BI19" s="3"/>
+      <c r="BJ19" s="3"/>
+      <c r="BK19" s="3"/>
+      <c r="BL19" s="3"/>
+      <c r="BM19" s="3"/>
+    </row>
+    <row r="20" spans="1:65">
+      <c r="A20" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="3"/>
+      <c r="BA20" s="3"/>
+      <c r="BB20" s="3"/>
+      <c r="BC20" s="3"/>
+      <c r="BD20" s="3"/>
+      <c r="BE20" s="3"/>
+      <c r="BF20" s="3"/>
+      <c r="BG20" s="3"/>
+      <c r="BH20" s="3"/>
+      <c r="BI20" s="3"/>
+      <c r="BJ20" s="3"/>
+      <c r="BK20" s="3"/>
+      <c r="BL20" s="3"/>
+      <c r="BM20" s="3"/>
+    </row>
+    <row r="21" spans="1:65">
+      <c r="A21" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+      <c r="BE21" s="3"/>
+      <c r="BF21" s="3"/>
+      <c r="BG21" s="3"/>
+      <c r="BH21" s="3"/>
+      <c r="BI21" s="3"/>
+      <c r="BJ21" s="3"/>
+      <c r="BK21" s="3"/>
+      <c r="BL21" s="3"/>
+      <c r="BM21" s="3"/>
+    </row>
+    <row r="22" spans="1:65">
+      <c r="A22" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23">
+        <v>4</v>
+      </c>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="2"/>
+      <c r="BA22" s="2"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
+      <c r="BI22" s="3"/>
+      <c r="BJ22" s="3"/>
+      <c r="BK22" s="3"/>
+      <c r="BL22" s="3"/>
+      <c r="BM22" s="3"/>
+    </row>
+    <row r="23" spans="1:65">
+      <c r="A23" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23">
+        <v>4</v>
+      </c>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="2"/>
+      <c r="BE23" s="2"/>
+      <c r="BF23" s="3"/>
+      <c r="BG23" s="3"/>
+      <c r="BH23" s="3"/>
+      <c r="BI23" s="3"/>
+      <c r="BJ23" s="3"/>
+      <c r="BK23" s="3"/>
+      <c r="BL23" s="3"/>
+      <c r="BM23" s="3"/>
+    </row>
+    <row r="24" spans="1:65">
+      <c r="A24" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23">
+        <v>4</v>
+      </c>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+      <c r="BE24" s="3"/>
+      <c r="BF24" s="4"/>
+      <c r="BG24" s="4"/>
+      <c r="BH24" s="4"/>
+      <c r="BI24" s="4"/>
+      <c r="BJ24" s="3"/>
+      <c r="BK24" s="3"/>
+      <c r="BL24" s="3"/>
+      <c r="BM24" s="3"/>
+    </row>
+    <row r="25" spans="1:65">
+      <c r="A25" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23">
+        <v>4</v>
+      </c>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="3"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="3"/>
+      <c r="BE25" s="3"/>
+      <c r="BF25" s="3"/>
+      <c r="BG25" s="3"/>
+      <c r="BH25" s="3"/>
+      <c r="BI25" s="3"/>
+      <c r="BJ25" s="4"/>
+      <c r="BK25" s="4"/>
+      <c r="BL25" s="4"/>
+      <c r="BM25" s="4"/>
+    </row>
+    <row r="26" spans="1:65" s="16" customFormat="1" ht="19">
+      <c r="A26" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:65">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+    </row>
+    <row r="28" spans="1:65">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+    </row>
+    <row r="29" spans="1:65">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+    </row>
+    <row r="30" spans="1:65">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+    </row>
+    <row r="31" spans="1:65">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+    </row>
+    <row r="32" spans="1:65" s="17" customFormat="1" ht="19">
+      <c r="A32" s="25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
     </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="BW1:CC1"/>
+    <mergeCell ref="CD1:CH1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="AG1:AM1"/>
+    <mergeCell ref="AN1:AT1"/>
+    <mergeCell ref="AU1:BA1"/>
+    <mergeCell ref="BB1:BH1"/>
+    <mergeCell ref="BI1:BO1"/>
+    <mergeCell ref="BP1:BV1"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="Z1:AF1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Planning/Project plan (Gannt chart).xlsx
+++ b/Planning/Project plan (Gannt chart).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellison/Desktop/ADS-game/Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6FB598-E5B5-1F43-91BA-AFD740D4451E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E3B06F-3369-2940-BDF9-317B4C63976C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{9AD47872-EC1B-47C7-9742-BE9638469133}"/>
+    <workbookView xWindow="1160" yWindow="480" windowWidth="28800" windowHeight="15840" xr2:uid="{9AD47872-EC1B-47C7-9742-BE9638469133}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -526,23 +526,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -558,15 +546,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -579,6 +558,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -896,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F3ED06-EAD6-42B7-8C45-BF404977AE17}">
   <dimension ref="A1:CH36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -910,361 +910,361 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:86" ht="27" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="8" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="8" t="s">
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="8" t="s">
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="8" t="s">
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="8" t="s">
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="8" t="s">
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="21"/>
+      <c r="AU1" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="11"/>
-      <c r="BB1" s="8" t="s">
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="21"/>
+      <c r="BB1" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-      <c r="BG1" s="6"/>
-      <c r="BH1" s="11"/>
-      <c r="BI1" s="8" t="s">
+      <c r="BC1" s="20"/>
+      <c r="BD1" s="20"/>
+      <c r="BE1" s="20"/>
+      <c r="BF1" s="20"/>
+      <c r="BG1" s="20"/>
+      <c r="BH1" s="21"/>
+      <c r="BI1" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="BJ1" s="6"/>
-      <c r="BK1" s="6"/>
-      <c r="BL1" s="6"/>
-      <c r="BM1" s="6"/>
-      <c r="BN1" s="6"/>
-      <c r="BO1" s="11"/>
-      <c r="BP1" s="8" t="s">
+      <c r="BJ1" s="20"/>
+      <c r="BK1" s="20"/>
+      <c r="BL1" s="20"/>
+      <c r="BM1" s="20"/>
+      <c r="BN1" s="20"/>
+      <c r="BO1" s="21"/>
+      <c r="BP1" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="BQ1" s="6"/>
-      <c r="BR1" s="6"/>
-      <c r="BS1" s="6"/>
-      <c r="BT1" s="6"/>
-      <c r="BU1" s="6"/>
-      <c r="BV1" s="11"/>
-      <c r="BW1" s="8" t="s">
+      <c r="BQ1" s="20"/>
+      <c r="BR1" s="20"/>
+      <c r="BS1" s="20"/>
+      <c r="BT1" s="20"/>
+      <c r="BU1" s="20"/>
+      <c r="BV1" s="21"/>
+      <c r="BW1" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="BX1" s="6"/>
-      <c r="BY1" s="6"/>
-      <c r="BZ1" s="6"/>
-      <c r="CA1" s="6"/>
-      <c r="CB1" s="6"/>
-      <c r="CC1" s="11"/>
-      <c r="CD1" s="7" t="s">
+      <c r="BX1" s="20"/>
+      <c r="BY1" s="20"/>
+      <c r="BZ1" s="20"/>
+      <c r="CA1" s="20"/>
+      <c r="CB1" s="20"/>
+      <c r="CC1" s="21"/>
+      <c r="CD1" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="CE1" s="7"/>
-      <c r="CF1" s="7"/>
-      <c r="CG1" s="7"/>
-      <c r="CH1" s="7"/>
+      <c r="CE1" s="22"/>
+      <c r="CF1" s="22"/>
+      <c r="CG1" s="22"/>
+      <c r="CH1" s="22"/>
     </row>
     <row r="2" spans="1:86" ht="66" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="X2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="Y2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="Z2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AA2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AB2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AC2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AD2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AE2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="AF2" s="12" t="s">
+      <c r="AF2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AG2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AH2" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AI2" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AK2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AL2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AM2" s="12" t="s">
+      <c r="AM2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AN2" s="9" t="s">
+      <c r="AN2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AO2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AP2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AR2" s="10" t="s">
+      <c r="AR2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AS2" s="10" t="s">
+      <c r="AS2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AT2" s="12" t="s">
+      <c r="AT2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AU2" s="9" t="s">
+      <c r="AU2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AV2" s="10" t="s">
+      <c r="AV2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AW2" s="10" t="s">
+      <c r="AW2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AX2" s="10" t="s">
+      <c r="AX2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AY2" s="10" t="s">
+      <c r="AY2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AZ2" s="10" t="s">
+      <c r="AZ2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="BA2" s="12" t="s">
+      <c r="BA2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="BB2" s="9" t="s">
+      <c r="BB2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="BC2" s="10" t="s">
+      <c r="BC2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="BD2" s="10" t="s">
+      <c r="BD2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="BE2" s="10" t="s">
+      <c r="BE2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="BF2" s="10" t="s">
+      <c r="BF2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="BG2" s="10" t="s">
+      <c r="BG2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="BH2" s="12" t="s">
+      <c r="BH2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="BI2" s="9" t="s">
+      <c r="BI2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="BJ2" s="10" t="s">
+      <c r="BJ2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="BK2" s="10" t="s">
+      <c r="BK2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="BL2" s="10" t="s">
+      <c r="BL2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="BM2" s="10" t="s">
+      <c r="BM2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="BN2" s="10" t="s">
+      <c r="BN2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="BO2" s="12" t="s">
+      <c r="BO2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="BP2" s="9" t="s">
+      <c r="BP2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BQ2" s="10" t="s">
+      <c r="BQ2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="BR2" s="10" t="s">
+      <c r="BR2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="BS2" s="10" t="s">
+      <c r="BS2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="BT2" s="10" t="s">
+      <c r="BT2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="BU2" s="10" t="s">
+      <c r="BU2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="BV2" s="12" t="s">
+      <c r="BV2" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="BW2" s="9" t="s">
+      <c r="BW2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="BX2" s="10" t="s">
+      <c r="BX2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="BY2" s="10" t="s">
+      <c r="BY2" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="BZ2" s="10" t="s">
+      <c r="BZ2" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="CA2" s="10" t="s">
+      <c r="CA2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="CB2" s="10" t="s">
+      <c r="CB2" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="CC2" s="12" t="s">
+      <c r="CC2" s="8" t="s">
         <v>97</v>
       </c>
       <c r="CD2" s="1" t="s">
@@ -1283,103 +1283,103 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="16" customFormat="1" ht="19" customHeight="1">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:86" s="12" customFormat="1" ht="19" customHeight="1">
+      <c r="A3" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
-      <c r="AN3" s="14"/>
-      <c r="AO3" s="14"/>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="14"/>
-      <c r="AR3" s="14"/>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14"/>
-      <c r="AW3" s="14"/>
-      <c r="AX3" s="14"/>
-      <c r="AY3" s="14"/>
-      <c r="AZ3" s="14"/>
-      <c r="BA3" s="14"/>
-      <c r="BB3" s="14"/>
-      <c r="BC3" s="14"/>
-      <c r="BD3" s="14"/>
-      <c r="BE3" s="14"/>
-      <c r="BF3" s="14"/>
-      <c r="BG3" s="14"/>
-      <c r="BH3" s="14"/>
-      <c r="BI3" s="14"/>
-      <c r="BJ3" s="14"/>
-      <c r="BK3" s="14"/>
-      <c r="BL3" s="14"/>
-      <c r="BM3" s="14"/>
-      <c r="BN3" s="14"/>
-      <c r="BO3" s="14"/>
-      <c r="BP3" s="14"/>
-      <c r="BQ3" s="14"/>
-      <c r="BR3" s="14"/>
-      <c r="BS3" s="14"/>
-      <c r="BT3" s="14"/>
-      <c r="BU3" s="14"/>
-      <c r="BV3" s="14"/>
-      <c r="BW3" s="14"/>
-      <c r="BX3" s="14"/>
-      <c r="BY3" s="14"/>
-      <c r="BZ3" s="14"/>
-      <c r="CA3" s="14"/>
-      <c r="CB3" s="14"/>
-      <c r="CC3" s="14"/>
-      <c r="CD3" s="15"/>
-      <c r="CE3" s="15"/>
-      <c r="CF3" s="15"/>
-      <c r="CG3" s="15"/>
-      <c r="CH3" s="15"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="10"/>
+      <c r="AW3" s="10"/>
+      <c r="AX3" s="10"/>
+      <c r="AY3" s="10"/>
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="10"/>
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="10"/>
+      <c r="BD3" s="10"/>
+      <c r="BE3" s="10"/>
+      <c r="BF3" s="10"/>
+      <c r="BG3" s="10"/>
+      <c r="BH3" s="10"/>
+      <c r="BI3" s="10"/>
+      <c r="BJ3" s="10"/>
+      <c r="BK3" s="10"/>
+      <c r="BL3" s="10"/>
+      <c r="BM3" s="10"/>
+      <c r="BN3" s="10"/>
+      <c r="BO3" s="10"/>
+      <c r="BP3" s="10"/>
+      <c r="BQ3" s="10"/>
+      <c r="BR3" s="10"/>
+      <c r="BS3" s="10"/>
+      <c r="BT3" s="10"/>
+      <c r="BU3" s="10"/>
+      <c r="BV3" s="10"/>
+      <c r="BW3" s="10"/>
+      <c r="BX3" s="10"/>
+      <c r="BY3" s="10"/>
+      <c r="BZ3" s="10"/>
+      <c r="CA3" s="10"/>
+      <c r="CB3" s="10"/>
+      <c r="CC3" s="10"/>
+      <c r="CD3" s="11"/>
+      <c r="CE3" s="11"/>
+      <c r="CF3" s="11"/>
+      <c r="CG3" s="11"/>
+      <c r="CH3" s="11"/>
     </row>
     <row r="4" spans="1:86">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23">
+      <c r="C4" s="15"/>
+      <c r="D4" s="16">
         <v>3</v>
       </c>
       <c r="E4" s="2"/>
@@ -1417,12 +1417,12 @@
       <c r="AL4" s="3"/>
     </row>
     <row r="5" spans="1:86">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23">
+      <c r="C5" s="15"/>
+      <c r="D5" s="16">
         <v>1</v>
       </c>
       <c r="E5" s="3"/>
@@ -1461,12 +1461,12 @@
       <c r="AL5" s="3"/>
     </row>
     <row r="6" spans="1:86">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23">
+      <c r="C6" s="15"/>
+      <c r="D6" s="16">
         <v>3</v>
       </c>
       <c r="E6" s="3"/>
@@ -1505,12 +1505,12 @@
       <c r="AL6" s="3"/>
     </row>
     <row r="7" spans="1:86">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23">
+      <c r="C7" s="15"/>
+      <c r="D7" s="16">
         <v>2</v>
       </c>
       <c r="E7" s="3"/>
@@ -1549,12 +1549,12 @@
       <c r="AL7" s="3"/>
     </row>
     <row r="8" spans="1:86">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23">
+      <c r="C8" s="15"/>
+      <c r="D8" s="16">
         <v>2</v>
       </c>
       <c r="E8" s="3"/>
@@ -1593,12 +1593,12 @@
       <c r="AL8" s="3"/>
     </row>
     <row r="9" spans="1:86">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23">
+      <c r="C9" s="15"/>
+      <c r="D9" s="16">
         <v>2</v>
       </c>
       <c r="E9" s="3"/>
@@ -1637,12 +1637,12 @@
       <c r="AL9" s="3"/>
     </row>
     <row r="10" spans="1:86">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23">
+      <c r="C10" s="15"/>
+      <c r="D10" s="16">
         <v>4</v>
       </c>
       <c r="E10" s="3"/>
@@ -1681,12 +1681,12 @@
       <c r="AL10" s="3"/>
     </row>
     <row r="11" spans="1:86">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23">
+      <c r="C11" s="15"/>
+      <c r="D11" s="16">
         <v>4</v>
       </c>
       <c r="E11" s="3"/>
@@ -1725,12 +1725,12 @@
       <c r="AL11" s="3"/>
     </row>
     <row r="12" spans="1:86">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23">
+      <c r="C12" s="15"/>
+      <c r="D12" s="16">
         <v>4</v>
       </c>
       <c r="E12" s="3"/>
@@ -1769,12 +1769,12 @@
       <c r="AL12" s="3"/>
     </row>
     <row r="13" spans="1:86">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23">
+      <c r="C13" s="15"/>
+      <c r="D13" s="16">
         <v>4</v>
       </c>
       <c r="E13" s="3"/>
@@ -1813,12 +1813,12 @@
       <c r="AL13" s="3"/>
     </row>
     <row r="14" spans="1:86">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23">
+      <c r="C14" s="15"/>
+      <c r="D14" s="16">
         <v>32</v>
       </c>
       <c r="E14" s="5"/>
@@ -1856,20 +1856,20 @@
       <c r="AK14" s="5"/>
       <c r="AL14" s="5"/>
     </row>
-    <row r="15" spans="1:86" s="16" customFormat="1" ht="19">
-      <c r="A15" s="21" t="s">
+    <row r="15" spans="1:86" s="12" customFormat="1" ht="19">
+      <c r="A15" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:86">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23">
+      <c r="C16" s="15"/>
+      <c r="D16" s="16">
         <v>3</v>
       </c>
       <c r="AK16" s="2"/>
@@ -1902,14 +1902,14 @@
       <c r="BM16" s="3"/>
     </row>
     <row r="17" spans="1:65">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23">
+      <c r="C17" s="15"/>
+      <c r="D17" s="16">
         <v>1</v>
       </c>
       <c r="AK17" s="3"/>
@@ -1943,14 +1943,14 @@
       <c r="BM17" s="3"/>
     </row>
     <row r="18" spans="1:65">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23">
+      <c r="C18" s="15"/>
+      <c r="D18" s="16">
         <v>3</v>
       </c>
       <c r="AK18" s="3"/>
@@ -1984,14 +1984,14 @@
       <c r="BM18" s="3"/>
     </row>
     <row r="19" spans="1:65">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23">
+      <c r="C19" s="15"/>
+      <c r="D19" s="16">
         <v>2</v>
       </c>
       <c r="AK19" s="3"/>
@@ -2025,14 +2025,14 @@
       <c r="BM19" s="3"/>
     </row>
     <row r="20" spans="1:65">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23">
+      <c r="C20" s="15"/>
+      <c r="D20" s="16">
         <v>2</v>
       </c>
       <c r="AK20" s="3"/>
@@ -2066,14 +2066,14 @@
       <c r="BM20" s="3"/>
     </row>
     <row r="21" spans="1:65">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23">
+      <c r="C21" s="15"/>
+      <c r="D21" s="16">
         <v>2</v>
       </c>
       <c r="AK21" s="3"/>
@@ -2107,14 +2107,14 @@
       <c r="BM21" s="3"/>
     </row>
     <row r="22" spans="1:65">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23">
+      <c r="C22" s="15"/>
+      <c r="D22" s="16">
         <v>4</v>
       </c>
       <c r="AK22" s="3"/>
@@ -2148,14 +2148,14 @@
       <c r="BM22" s="3"/>
     </row>
     <row r="23" spans="1:65">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23">
+      <c r="C23" s="15"/>
+      <c r="D23" s="16">
         <v>4</v>
       </c>
       <c r="AK23" s="3"/>
@@ -2189,14 +2189,14 @@
       <c r="BM23" s="3"/>
     </row>
     <row r="24" spans="1:65">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23">
+      <c r="C24" s="15"/>
+      <c r="D24" s="16">
         <v>4</v>
       </c>
       <c r="AK24" s="3"/>
@@ -2230,14 +2230,14 @@
       <c r="BM24" s="3"/>
     </row>
     <row r="25" spans="1:65">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23">
+      <c r="C25" s="15"/>
+      <c r="D25" s="16">
         <v>4</v>
       </c>
       <c r="AK25" s="3"/>
@@ -2270,69 +2270,69 @@
       <c r="BL25" s="4"/>
       <c r="BM25" s="4"/>
     </row>
-    <row r="26" spans="1:65" s="16" customFormat="1" ht="19">
-      <c r="A26" s="21" t="s">
+    <row r="26" spans="1:65" s="12" customFormat="1" ht="19">
+      <c r="A26" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:65">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:65">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:65">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:65">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
     </row>
     <row r="31" spans="1:65">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-    </row>
-    <row r="32" spans="1:65" s="17" customFormat="1" ht="19">
-      <c r="A32" s="25" t="s">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="1:65" s="13" customFormat="1" ht="19">
+      <c r="A32" s="18" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="13">
